--- a/FMOD/AudioList.xlsx
+++ b/FMOD/AudioList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\ProjectVrij2\FMOD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Flo/Code/ProjectVrij2/FMOD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C11A6BC-8968-44D1-BE13-F371672D2306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD74A15-A5D1-1D4E-8860-7457D0CFBFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8FBF9A00-82F6-9749-8ACB-281C36322E43}"/>
+    <workbookView xWindow="1100" yWindow="760" windowWidth="33460" windowHeight="21580" xr2:uid="{8FBF9A00-82F6-9749-8ACB-281C36322E43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,9 +131,6 @@
     <t>Normal enemies?</t>
   </si>
   <si>
-    <t>TODO: _id beter maken?</t>
-  </si>
-  <si>
     <t>Equip Item</t>
   </si>
   <si>
@@ -327,6 +324,9 @@
   </si>
   <si>
     <t>OnDeath</t>
+  </si>
+  <si>
+    <t>Prio</t>
   </si>
 </sst>
 </file>
@@ -395,14 +395,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -793,596 +792,612 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAD3F51-30D3-2944-B4FF-F09616193436}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.625" customWidth="1"/>
-    <col min="5" max="5" width="35.625" customWidth="1"/>
-    <col min="7" max="7" width="26.25" customWidth="1"/>
-    <col min="8" max="8" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" customWidth="1"/>
+    <col min="8" max="8" width="26.1640625" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
         <v>61</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="4">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="4">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="4">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="4">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="4">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="4">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="2">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="2">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="2">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="4">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="2">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="2">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="5">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="4">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="5">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="2">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="5">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="5">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="2">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="I31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B32" s="4">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="4">
         <v>32</v>
       </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="2">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" t="s">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" t="s">
-        <v>54</v>
-      </c>
-      <c r="G28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="H34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" t="s">
-        <v>92</v>
-      </c>
-      <c r="H31" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1</v>
-      </c>
-      <c r="G34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>31</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="World">
-      <formula>NOT(ISERROR(SEARCH("World",C1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("World",D1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Music">
-      <formula>NOT(ISERROR(SEARCH("Music",C1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Music",D1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="UI">
-      <formula>NOT(ISERROR(SEARCH("UI",C1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("UI",D1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Weapon">
-      <formula>NOT(ISERROR(SEARCH("Weapon",C1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Weapon",D1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="Gardener">
-      <formula>NOT(ISERROR(SEARCH("Gardener",C1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Gardener",D1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="Item">
-      <formula>NOT(ISERROR(SEARCH("Item",C1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Item",D1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="7" operator="containsText" text="Player">
-      <formula>NOT(ISERROR(SEARCH("Player",C1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Player",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FMOD/AudioList.xlsx
+++ b/FMOD/AudioList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Flo/Code/ProjectVrij2/FMOD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD74A15-A5D1-1D4E-8860-7457D0CFBFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8DB96D-CC62-7842-895E-20652CF3C825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="760" windowWidth="33460" windowHeight="21580" xr2:uid="{8FBF9A00-82F6-9749-8ACB-281C36322E43}"/>
   </bookViews>
@@ -794,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAD3F51-30D3-2944-B4FF-F09616193436}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
